--- a/amo/bin/hexCodes/usp_Employee_Login&Logout&Signup.xlsx
+++ b/amo/bin/hexCodes/usp_Employee_Login&Logout&Signup.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Yelloco\Backend\AMSServices\amo\hexCodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amrkh\Desktop\YelloCo\5.Fifth Task\AMSServices\amo\hexCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F5945D-FCEF-49D3-AFB7-382999369CBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Significance</t>
   </si>
@@ -99,12 +100,24 @@
   </si>
   <si>
     <t>usp_Employee_Logout</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Wrong Email or PAN or National ID</t>
+  </si>
+  <si>
+    <t>Password length less than 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,24 +437,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -455,7 +468,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -475,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -495,7 +508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -510,7 +523,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -525,7 +538,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -535,7 +548,7 @@
       <c r="D6" s="2"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -545,38 +558,48 @@
       <c r="D7" s="2"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -596,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -616,7 +639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -633,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
